--- a/data/trans_dic/P9_2-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P9_2-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que posee ordenador/ portátil en su vivienda actual</t>
+          <t>Población que posee ordenador/ portátil en su vivienda actual (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>79,96%</t>
+          <t>79,95%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>82,23%</t>
+          <t>81,74%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>73,58%</t>
+          <t>73,57%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>75,9%</t>
+          <t>75,75%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>76,63%</t>
+          <t>76,62%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>78,92%</t>
+          <t>78,61%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>76,33; 82,98</t>
+          <t>76,42; 82,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>78,32; 85,55</t>
+          <t>77,35; 85,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>70,32; 76,86</t>
+          <t>70,06; 76,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>72,54; 79,48</t>
+          <t>72,3; 79,06</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>74,2; 79,06</t>
+          <t>74,08; 78,98</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>76,19; 81,26</t>
+          <t>75,6; 80,86</t>
         </is>
       </c>
     </row>
@@ -686,27 +687,27 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>78,96%</t>
+          <t>78,69%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>67,82%</t>
+          <t>67,83%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>72,0%</t>
+          <t>72,17%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>71,61%</t>
+          <t>71,62%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>75,46%</t>
+          <t>75,41%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>71,41; 78,89</t>
+          <t>71,12; 79,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>74,51; 82,67</t>
+          <t>73,98; 82,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>63,45; 71,47</t>
+          <t>63,74; 71,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>67,74; 76,5</t>
+          <t>67,57; 76,37</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>68,84; 74,27</t>
+          <t>68,61; 74,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>72,42; 78,59</t>
+          <t>72,31; 78,71</t>
         </is>
       </c>
     </row>
@@ -761,12 +762,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>61,34%</t>
+          <t>61,33%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>61,11%</t>
+          <t>64,39%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -776,7 +777,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>64,14%</t>
+          <t>65,04%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -786,7 +787,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>62,61%</t>
+          <t>64,71%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>49,3; 70,36</t>
+          <t>50,05; 70,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>47,97; 70,64</t>
+          <t>51,04; 73,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>58,26; 72,48</t>
+          <t>58,63; 73,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>55,57; 73,01</t>
+          <t>56,44; 72,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>56,86; 69,71</t>
+          <t>56,97; 69,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>54,97; 69,28</t>
+          <t>57,01; 71,18</t>
         </is>
       </c>
     </row>
@@ -846,7 +847,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>78,34%</t>
+          <t>78,4%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -856,7 +857,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>73,06%</t>
+          <t>73,15%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -866,7 +867,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>75,64%</t>
+          <t>75,71%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>72,92; 78,49</t>
+          <t>73,25; 78,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>75,22; 81,24</t>
+          <t>75,33; 81,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>68,17; 72,83</t>
+          <t>67,97; 72,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>70,51; 75,5</t>
+          <t>70,45; 75,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>71,28; 74,76</t>
+          <t>71,23; 74,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>73,48; 77,52</t>
+          <t>73,7; 77,6</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -921,4 +929,595 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que posee ordenador/ portátil en su vivienda actual (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>538.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>479.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>599.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>542.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1137.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1021.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1311266</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1350767</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1317728</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1370558</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>2628994</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>2721325</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1253341; 1357990</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1278357; 1409347</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1254722; 1373327</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1308213; 1430419</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2541731; 2709792</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>2617121; 2799330</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>411.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>357.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>430.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>383.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>841.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>740.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1046448</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1081291</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>956259</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1004207</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2002707</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>2085498</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>986187; 1096887</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1016557; 1134078</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>898563; 1007212</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>940282; 1062728</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1918745; 2081140</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1999833; 2176832</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>204.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>171.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>259325</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>272242</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>272736</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>267915</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>532061</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>540157</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>211607; 296955</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>215804; 310853</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>241478; 301336</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>232455; 298384</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>475511; 581264</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>475830; 594128</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1034.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>914.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1148.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1018.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2182.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1932.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2617039</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>2704300</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>2546723</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>2642679</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>5163761</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>5346979</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2526817; 2715501</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2598599; 2797278</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2455608; 2626937</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>2545270; 2733584</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>5030255; 5283523</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>5205083; 5480471</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>